--- a/biology/Zoologie/Cheilostomatida/Cheilostomatida.xlsx
+++ b/biology/Zoologie/Cheilostomatida/Cheilostomatida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cheilostomatida sont un ordre de bryozoaires de la classe des Gymnolaemata.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cheilostomatida sont apparus au Jurassique supérieur. Ils forment des colonies calcaires, se développant sur des rochers, des coquilles, des algues allant de simples encroutements à des formes branchues ou libres. Ils se distinguent des autres bryozoaires par le fait que les polypides (essentiel des organes et tissus mous du zoïde) sont logés dans un exosquelette zoïdal en forme de boîte qui ne s'accroit plus lorsque le zoïde est mature.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des sous-taxons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (1er mars 2016)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (1er mars 2016) :
 sous-ordre Belluloporina
 super-famille Belluloporoidea Ostrovsky, 2013
 famille Belluloporidae Ostrovsky, 2013
